--- a/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallo\OneDrive\Documents\SCHOOL STUFF\05 Summer 2021\Capstone\malloyethan11\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF30FB27-EE8C-4E61-BD00-14589048878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89988779-7390-48AA-ADED-CB27929B5CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26835" yWindow="660" windowWidth="22980" windowHeight="13770" xr2:uid="{0F3C99C4-9686-4B89-98EB-786B08DFBAC1}"/>
+    <workbookView xWindow="-26490" yWindow="1005" windowWidth="22980" windowHeight="13770" xr2:uid="{BF68D7C4-44EC-4B04-8FCB-F44E7E46D93E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18F36B5-1A36-4B68-862E-E55CF66745C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6E7C51-0918-42F8-B97F-33A0D5A92723}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>44400.83966435185</v>
+        <v>44400.906770833331</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mallo\OneDrive\Documents\SCHOOL STUFF\05 Summer 2021\Capstone\malloyethan11\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89988779-7390-48AA-ADED-CB27929B5CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DC475A-4665-4AA1-98A2-9D31A0E9A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26490" yWindow="1005" windowWidth="22980" windowHeight="13770" xr2:uid="{BF68D7C4-44EC-4B04-8FCB-F44E7E46D93E}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{452CFB86-BD50-4F0A-B93E-3A6BF53C4191}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6E7C51-0918-42F8-B97F-33A0D5A92723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1F13B-7AEC-4FD0-9507-629712E87106}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>44400.906770833331</v>
+        <v>44401.558807870373</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -498,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>49787.23</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2074.467916666667</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -512,13 +512,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>48829.65</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>12207.4125</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>46750.25</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1947.9270833333333</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>3036.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -548,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>49787.23</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2074.467916666667</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -576,10 +576,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>585.45000000000005</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -590,10 +590,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>49201.78</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>7.8</v>
       </c>
       <c r="C21">
-        <v>46750.25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DC475A-4665-4AA1-98A2-9D31A0E9A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CCF833-8E0F-426C-894F-6D711D052602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{452CFB86-BD50-4F0A-B93E-3A6BF53C4191}"/>
+    <workbookView xWindow="31050" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{D3569A75-87D6-4165-915F-2A16E21DC677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1F13B-7AEC-4FD0-9507-629712E87106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF6998D-16B7-40A2-AA78-BAFCED99E898}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>44401.558807870373</v>
+        <v>44408.431203703702</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CCF833-8E0F-426C-894F-6D711D052602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B30C96-8C0B-41E4-BC6E-F7BBA92A87F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{D3569A75-87D6-4165-915F-2A16E21DC677}"/>
+    <workbookView xWindow="31395" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{B94BFA2C-6E9B-429C-BE84-3FB2411B1D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF6998D-16B7-40A2-AA78-BAFCED99E898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7178DFC-0C30-4BFB-82E2-EB963FCC1376}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>44408.431203703702</v>
+        <v>44410.884479166663</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/016be9303c01b4f8/Documents/SCHOOL STUFF/05 Summer 2021/Capstone/malloyethan11/report_creation_program/report_creation_program/report_creation_program/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B30C96-8C0B-41E4-BC6E-F7BBA92A87F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D332BB-72BC-409E-B4DF-54FBD0968B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{B94BFA2C-6E9B-429C-BE84-3FB2411B1D63}"/>
+    <workbookView xWindow="-25905" yWindow="1830" windowWidth="22980" windowHeight="13770" xr2:uid="{D042EC4A-AB02-46C7-96E6-23D189D5BEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7178DFC-0C30-4BFB-82E2-EB963FCC1376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2CE0F8-5C13-40D5-B5B8-49032E53094E}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>44410.884479166663</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -498,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>957.58</v>
       </c>
       <c r="D6">
-        <v>65535</v>
+        <v>47.879000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -512,13 +512,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>48829.65</v>
       </c>
       <c r="D7">
-        <v>65535</v>
+        <v>12207.4125</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>900.81</v>
       </c>
       <c r="D8">
-        <v>65535</v>
+        <v>45.040499999999994</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>56.77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -548,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>957.57999999999993</v>
       </c>
       <c r="D10">
-        <v>65535</v>
+        <v>47.878999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>585.45000000000005</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>585.45000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -590,13 +590,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>49201.78</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>49201.78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>7.8</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>900.81</v>
       </c>
     </row>
   </sheetData>

--- a/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Homework\CAPSTONE\report_creation_program\report_creation_program\report_creation_program\report_creation_program\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/016be9303c01b4f8/Documents/SCHOOL STUFF/05 Summer 2021/Capstone/malloyethan11/report_creation_program/report_creation_program/report_creation_program/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F4E2F05-C865-4FD2-89E0-D5101838540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896B23E6-E3A1-43B9-BC61-41A49B11B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34725" yWindow="3450" windowWidth="21600" windowHeight="11385" xr2:uid="{4D497E0F-2A7A-4EDD-BA1F-1908BE4A9B17}"/>
+    <workbookView xWindow="795" yWindow="1230" windowWidth="22980" windowHeight="13770" xr2:uid="{22C1D288-C8B4-4354-A6E4-8D8CA4859E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C0BE0E-1A6F-4693-9FD5-201D12318A11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6781201-6863-4320-94B5-C15A6F4A1EF3}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>44414</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -498,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>982.8</v>
+        <v>957.58</v>
       </c>
       <c r="D6">
-        <v>98.28</v>
+        <v>47.879000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -515,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>77867229.189999998</v>
+        <v>48829.65</v>
       </c>
       <c r="D7">
-        <v>19466807.297499999</v>
+        <v>12207.4125</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>911.68</v>
+        <v>900.81</v>
       </c>
       <c r="D8">
-        <v>91.167999999999992</v>
+        <v>45.040499999999994</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>71.12</v>
+        <v>56.77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -548,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>982.8</v>
+        <v>957.57999999999993</v>
       </c>
       <c r="D10">
-        <v>98.28</v>
+        <v>47.878999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>77868714.840000004</v>
+        <v>520.52</v>
       </c>
       <c r="D13">
-        <v>77868714.840000004</v>
+        <v>520.52</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -590,13 +590,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>52.61</v>
+        <v>437.06</v>
       </c>
       <c r="D14">
-        <v>52.61</v>
+        <v>437.06</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -612,10 +612,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>57.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>498.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>7.8</v>
       </c>
       <c r="C21">
-        <v>911.68</v>
+        <v>900.81</v>
       </c>
     </row>
   </sheetData>

--- a/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
+++ b/report_creation_program/report_creation_program/bin/Debug/TaxReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/016be9303c01b4f8/Documents/SCHOOL STUFF/05 Summer 2021/Capstone/malloyethan11/report_creation_program/report_creation_program/report_creation_program/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896B23E6-E3A1-43B9-BC61-41A49B11B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{525724FF-B09B-4A56-9B01-EE7913FBD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1230" windowWidth="22980" windowHeight="13770" xr2:uid="{22C1D288-C8B4-4354-A6E4-8D8CA4859E77}"/>
+    <workbookView xWindow="795" yWindow="1230" windowWidth="22980" windowHeight="13770" xr2:uid="{9832AEC0-77B7-446B-B41D-0E2708A074D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6781201-6863-4320-94B5-C15A6F4A1EF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F501B40F-40AF-4014-A6CC-32528CF1550D}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>44393</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -498,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>957.58</v>
+        <v>982.8</v>
       </c>
       <c r="D6">
-        <v>47.879000000000005</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -515,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>48829.65</v>
+        <v>77867229.189999998</v>
       </c>
       <c r="D7">
-        <v>12207.4125</v>
+        <v>19466807.297499999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>900.81</v>
+        <v>911.68</v>
       </c>
       <c r="D8">
-        <v>45.040499999999994</v>
+        <v>91.167999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>56.77</v>
+        <v>71.12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -548,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>957.57999999999993</v>
+        <v>982.8</v>
       </c>
       <c r="D10">
-        <v>47.878999999999998</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>520.52</v>
+        <v>930.19</v>
       </c>
       <c r="D13">
-        <v>520.52</v>
+        <v>930.19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -590,13 +590,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>437.06</v>
+        <v>52.61</v>
       </c>
       <c r="D14">
-        <v>437.06</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -612,10 +612,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>57.09</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>498.37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>7.8</v>
       </c>
       <c r="C21">
-        <v>900.81</v>
+        <v>911.68</v>
       </c>
     </row>
   </sheetData>
